--- a/Data/TempExcelExport/PrimerFiltroLibre-09102024.xlsx
+++ b/Data/TempExcelExport/PrimerFiltroLibre-09102024.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="393">
   <si>
     <t>24100070</t>
   </si>
@@ -1061,48 +1061,6 @@
   </si>
   <si>
     <t>09.10.2024 13:22:38</t>
-  </si>
-  <si>
-    <t>24470870</t>
-  </si>
-  <si>
-    <t>Tecnigarden Costa del Sol, S.L. / 29603 Marbella</t>
-  </si>
-  <si>
-    <t>208802555</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>09.10.2024 04:04:21</t>
-  </si>
-  <si>
-    <t>208487176</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>09.10.2024 12:38:35</t>
-  </si>
-  <si>
-    <t>208419544</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>09.10.2024 13:16:37</t>
-  </si>
-  <si>
-    <t>208542380</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>09.10.2024 13:31:14</t>
   </si>
   <si>
     <t>24480560</t>
@@ -1359,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AH132"/>
+  <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1405,106 +1363,106 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="W1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="Z1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AB1" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AD1" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AE1" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="AF1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="AG1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:34" outlineLevel="2">
@@ -13997,13 +13955,13 @@
         <v>353</v>
       </c>
       <c r="E123" s="2">
-        <v>595.34</v>
+        <v>3320.13</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
       <c r="G123" s="2">
-        <v>75000.00</v>
+        <v>196000.00</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -14012,19 +13970,19 @@
         <v>5</v>
       </c>
       <c r="J123" s="2">
-        <v>40560.80</v>
+        <v>1058070.03</v>
       </c>
       <c r="K123" s="2">
-        <v>1824.82</v>
+        <v>5847.12</v>
       </c>
       <c r="L123" t="s">
         <v>6</v>
       </c>
       <c r="M123" s="2">
-        <v>41051.47</v>
+        <v>1068288.70</v>
       </c>
       <c r="N123" s="3">
-        <v>54.7</v>
+        <v>545.0</v>
       </c>
       <c r="O123" t="s">
         <v>354</v>
@@ -14036,7 +13994,7 @@
         <v>8</v>
       </c>
       <c r="R123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S123" t="s">
         <v>10</v>
@@ -14045,7 +14003,7 @@
         <v>10</v>
       </c>
       <c r="U123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V123" t="s">
         <v>10</v>
@@ -14054,16 +14012,16 @@
         <v>8</v>
       </c>
       <c r="X123" s="2">
-        <v>26252.65</v>
+        <v>54041.10</v>
       </c>
       <c r="Y123" s="2">
-        <v>6541.19</v>
+        <v>58442.28</v>
       </c>
       <c r="Z123" s="2">
-        <v>758.34</v>
+        <v>918095.41</v>
       </c>
       <c r="AA123" s="2">
-        <v>7008.62</v>
+        <v>27491.24</v>
       </c>
       <c r="AB123" t="s">
         <v>142</v>
@@ -14081,137 +14039,131 @@
         <v>8</v>
       </c>
       <c r="AG123" s="2">
-        <v>437.50</v>
+        <v>4706.29</v>
       </c>
       <c r="AH123" s="2">
         <v>0.00</v>
       </c>
     </row>
-    <row r="124" spans="1:34" outlineLevel="2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:34" outlineLevel="1">
+      <c r="A124" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B124" t="s">
-        <v>351</v>
-      </c>
-      <c r="C124" t="s">
-        <v>355</v>
-      </c>
-      <c r="D124" t="s">
-        <v>356</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1307.86</v>
-      </c>
-      <c r="F124" t="s">
-        <v>4</v>
-      </c>
-      <c r="G124" s="2">
-        <v>75000.00</v>
-      </c>
-      <c r="H124" t="s">
-        <v>4</v>
-      </c>
-      <c r="I124" t="s">
-        <v>5</v>
-      </c>
-      <c r="J124" s="2">
-        <v>40560.80</v>
-      </c>
-      <c r="K124" s="2">
-        <v>1824.82</v>
-      </c>
-      <c r="L124" t="s">
-        <v>6</v>
-      </c>
-      <c r="M124" s="2">
-        <v>41051.47</v>
-      </c>
-      <c r="N124" s="3">
-        <v>54.7</v>
-      </c>
-      <c r="O124" t="s">
-        <v>357</v>
-      </c>
-      <c r="P124" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>8</v>
-      </c>
-      <c r="R124" t="s">
-        <v>10</v>
-      </c>
-      <c r="S124" t="s">
-        <v>10</v>
-      </c>
-      <c r="T124" t="s">
-        <v>10</v>
-      </c>
-      <c r="U124" t="s">
-        <v>9</v>
-      </c>
-      <c r="V124" t="s">
-        <v>10</v>
-      </c>
-      <c r="W124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X124" s="2">
-        <v>26252.65</v>
-      </c>
-      <c r="Y124" s="2">
-        <v>6541.19</v>
-      </c>
-      <c r="Z124" s="2">
-        <v>758.34</v>
-      </c>
-      <c r="AA124" s="2">
-        <v>7008.62</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD124" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF124" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG124" s="2">
-        <v>437.50</v>
-      </c>
-      <c r="AH124" s="2">
+      <c r="B124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="6">
+        <v>3320.13</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="6">
+        <v>1058070.03</v>
+      </c>
+      <c r="K124" s="6">
+        <v>5847.12</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X124" s="6">
+        <v>54041.10</v>
+      </c>
+      <c r="Y124" s="6">
+        <v>58442.28</v>
+      </c>
+      <c r="Z124" s="6">
+        <v>918095.41</v>
+      </c>
+      <c r="AA124" s="6">
+        <v>27491.24</v>
+      </c>
+      <c r="AB124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG124" s="6">
+        <v>4706.29</v>
+      </c>
+      <c r="AH124" s="6">
         <v>0.00</v>
       </c>
     </row>
     <row r="125" spans="1:34" outlineLevel="2">
       <c r="A125" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B125" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D125" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
       <c r="E125" s="2">
-        <v>16.17</v>
+        <v>1190.59</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
       <c r="G125" s="2">
-        <v>75000.00</v>
+        <v>40000.00</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -14220,22 +14172,22 @@
         <v>5</v>
       </c>
       <c r="J125" s="2">
-        <v>40560.80</v>
+        <v>30818.27</v>
       </c>
       <c r="K125" s="2">
-        <v>1824.82</v>
+        <v>10331.49</v>
       </c>
       <c r="L125" t="s">
         <v>6</v>
       </c>
       <c r="M125" s="2">
-        <v>41051.47</v>
+        <v>70778.67</v>
       </c>
       <c r="N125" s="3">
-        <v>54.7</v>
+        <v>176.9</v>
       </c>
       <c r="O125" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P125" t="s">
         <v>8</v>
@@ -14244,7 +14196,7 @@
         <v>8</v>
       </c>
       <c r="R125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S125" t="s">
         <v>10</v>
@@ -14253,7 +14205,7 @@
         <v>10</v>
       </c>
       <c r="U125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V125" t="s">
         <v>10</v>
@@ -14262,16 +14214,16 @@
         <v>8</v>
       </c>
       <c r="X125" s="2">
-        <v>26252.65</v>
+        <v>27493.51</v>
       </c>
       <c r="Y125" s="2">
-        <v>6541.19</v>
+        <v>874.74</v>
       </c>
       <c r="Z125" s="2">
-        <v>758.34</v>
+        <v>2450.02</v>
       </c>
       <c r="AA125" s="2">
-        <v>7008.62</v>
+        <v>0.00</v>
       </c>
       <c r="AB125" t="s">
         <v>142</v>
@@ -14289,713 +14241,205 @@
         <v>8</v>
       </c>
       <c r="AG125" s="2">
-        <v>437.50</v>
+        <v>39580.41</v>
       </c>
       <c r="AH125" s="2">
         <v>0.00</v>
       </c>
     </row>
-    <row r="126" spans="1:34" outlineLevel="2">
-      <c r="A126" t="s">
-        <v>350</v>
-      </c>
-      <c r="B126" t="s">
-        <v>351</v>
-      </c>
-      <c r="C126" t="s">
-        <v>361</v>
-      </c>
-      <c r="D126" t="s">
-        <v>362</v>
-      </c>
-      <c r="E126" s="2">
-        <v>409.66</v>
-      </c>
-      <c r="F126" t="s">
-        <v>4</v>
-      </c>
-      <c r="G126" s="2">
-        <v>75000.00</v>
-      </c>
-      <c r="H126" t="s">
-        <v>4</v>
-      </c>
-      <c r="I126" t="s">
-        <v>5</v>
-      </c>
-      <c r="J126" s="2">
-        <v>40560.80</v>
-      </c>
-      <c r="K126" s="2">
-        <v>1824.82</v>
-      </c>
-      <c r="L126" t="s">
-        <v>6</v>
-      </c>
-      <c r="M126" s="2">
-        <v>41051.47</v>
-      </c>
-      <c r="N126" s="3">
-        <v>54.7</v>
-      </c>
-      <c r="O126" t="s">
-        <v>363</v>
-      </c>
-      <c r="P126" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>8</v>
-      </c>
-      <c r="R126" t="s">
-        <v>10</v>
-      </c>
-      <c r="S126" t="s">
-        <v>10</v>
-      </c>
-      <c r="T126" t="s">
-        <v>10</v>
-      </c>
-      <c r="U126" t="s">
-        <v>9</v>
-      </c>
-      <c r="V126" t="s">
-        <v>10</v>
-      </c>
-      <c r="W126" t="s">
-        <v>8</v>
-      </c>
-      <c r="X126" s="2">
-        <v>26252.65</v>
-      </c>
-      <c r="Y126" s="2">
-        <v>6541.19</v>
-      </c>
-      <c r="Z126" s="2">
-        <v>758.34</v>
-      </c>
-      <c r="AA126" s="2">
-        <v>7008.62</v>
-      </c>
-      <c r="AB126" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC126" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD126" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE126" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF126" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG126" s="2">
-        <v>437.50</v>
-      </c>
-      <c r="AH126" s="2">
+    <row r="126" spans="1:34" outlineLevel="1">
+      <c r="A126" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="6">
+        <v>1190.59</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J126" s="6">
+        <v>30818.27</v>
+      </c>
+      <c r="K126" s="6">
+        <v>10331.49</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X126" s="6">
+        <v>27493.51</v>
+      </c>
+      <c r="Y126" s="6">
+        <v>874.74</v>
+      </c>
+      <c r="Z126" s="6">
+        <v>2450.02</v>
+      </c>
+      <c r="AA126" s="6">
+        <v>0.00</v>
+      </c>
+      <c r="AB126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG126" s="6">
+        <v>39580.41</v>
+      </c>
+      <c r="AH126" s="6">
         <v>0.00</v>
       </c>
     </row>
-    <row r="127" spans="1:34" outlineLevel="1">
-      <c r="A127" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="6">
-        <v>2329.03</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G127" s="7"/>
-      <c r="H127" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J127" s="6">
-        <v>162243.20</v>
-      </c>
-      <c r="K127" s="6">
-        <v>7299.28</v>
-      </c>
-      <c r="L127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="V127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="W127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="X127" s="6">
-        <v>105010.60</v>
-      </c>
-      <c r="Y127" s="6">
-        <v>26164.76</v>
-      </c>
-      <c r="Z127" s="6">
-        <v>3033.36</v>
-      </c>
-      <c r="AA127" s="6">
-        <v>28034.48</v>
-      </c>
-      <c r="AB127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG127" s="6">
-        <v>1750.00</v>
-      </c>
-      <c r="AH127" s="6">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34" outlineLevel="2">
-      <c r="A128" t="s">
-        <v>364</v>
-      </c>
-      <c r="B128" t="s">
-        <v>365</v>
-      </c>
-      <c r="C128" t="s">
-        <v>366</v>
-      </c>
-      <c r="D128" t="s">
-        <v>367</v>
-      </c>
-      <c r="E128" s="2">
-        <v>3320.13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>4</v>
-      </c>
-      <c r="G128" s="2">
-        <v>196000.00</v>
-      </c>
-      <c r="H128" t="s">
-        <v>4</v>
-      </c>
-      <c r="I128" t="s">
-        <v>5</v>
-      </c>
-      <c r="J128" s="2">
-        <v>1058070.03</v>
-      </c>
-      <c r="K128" s="2">
-        <v>5847.12</v>
-      </c>
-      <c r="L128" t="s">
-        <v>6</v>
-      </c>
-      <c r="M128" s="2">
-        <v>1068288.70</v>
-      </c>
-      <c r="N128" s="3">
-        <v>545.0</v>
-      </c>
-      <c r="O128" t="s">
-        <v>368</v>
-      </c>
-      <c r="P128" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>8</v>
-      </c>
-      <c r="R128" t="s">
-        <v>9</v>
-      </c>
-      <c r="S128" t="s">
-        <v>10</v>
-      </c>
-      <c r="T128" t="s">
-        <v>10</v>
-      </c>
-      <c r="U128" t="s">
-        <v>10</v>
-      </c>
-      <c r="V128" t="s">
-        <v>10</v>
-      </c>
-      <c r="W128" t="s">
-        <v>8</v>
-      </c>
-      <c r="X128" s="2">
-        <v>54041.10</v>
-      </c>
-      <c r="Y128" s="2">
-        <v>58442.28</v>
-      </c>
-      <c r="Z128" s="2">
-        <v>918095.41</v>
-      </c>
-      <c r="AA128" s="2">
-        <v>27491.24</v>
-      </c>
-      <c r="AB128" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC128" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD128" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE128" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF128" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG128" s="2">
-        <v>4706.29</v>
-      </c>
-      <c r="AH128" s="2">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="129" spans="1:34" outlineLevel="1">
-      <c r="A129" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="6">
-        <v>3320.13</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J129" s="6">
-        <v>1058070.03</v>
-      </c>
-      <c r="K129" s="6">
-        <v>5847.12</v>
-      </c>
-      <c r="L129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="V129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="W129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="X129" s="6">
-        <v>54041.10</v>
-      </c>
-      <c r="Y129" s="6">
-        <v>58442.28</v>
-      </c>
-      <c r="Z129" s="6">
-        <v>918095.41</v>
-      </c>
-      <c r="AA129" s="6">
-        <v>27491.24</v>
-      </c>
-      <c r="AB129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG129" s="6">
-        <v>4706.29</v>
-      </c>
-      <c r="AH129" s="6">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="130" spans="1:34" outlineLevel="2">
-      <c r="A130" t="s">
-        <v>369</v>
-      </c>
-      <c r="B130" t="s">
-        <v>370</v>
-      </c>
-      <c r="C130" t="s">
-        <v>371</v>
-      </c>
-      <c r="D130" t="s">
-        <v>216</v>
-      </c>
-      <c r="E130" s="2">
-        <v>1190.59</v>
-      </c>
-      <c r="F130" t="s">
-        <v>4</v>
-      </c>
-      <c r="G130" s="2">
-        <v>40000.00</v>
-      </c>
-      <c r="H130" t="s">
-        <v>4</v>
-      </c>
-      <c r="I130" t="s">
-        <v>5</v>
-      </c>
-      <c r="J130" s="2">
-        <v>30818.27</v>
-      </c>
-      <c r="K130" s="2">
-        <v>10331.49</v>
-      </c>
-      <c r="L130" t="s">
-        <v>6</v>
-      </c>
-      <c r="M130" s="2">
-        <v>70778.67</v>
-      </c>
-      <c r="N130" s="3">
-        <v>176.9</v>
-      </c>
-      <c r="O130" t="s">
-        <v>372</v>
-      </c>
-      <c r="P130" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>8</v>
-      </c>
-      <c r="R130" t="s">
-        <v>9</v>
-      </c>
-      <c r="S130" t="s">
-        <v>10</v>
-      </c>
-      <c r="T130" t="s">
-        <v>10</v>
-      </c>
-      <c r="U130" t="s">
-        <v>10</v>
-      </c>
-      <c r="V130" t="s">
-        <v>10</v>
-      </c>
-      <c r="W130" t="s">
-        <v>8</v>
-      </c>
-      <c r="X130" s="2">
-        <v>27493.51</v>
-      </c>
-      <c r="Y130" s="2">
-        <v>874.74</v>
-      </c>
-      <c r="Z130" s="2">
-        <v>2450.02</v>
-      </c>
-      <c r="AA130" s="2">
-        <v>0.00</v>
-      </c>
-      <c r="AB130" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC130" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD130" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE130" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF130" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG130" s="2">
-        <v>39580.41</v>
-      </c>
-      <c r="AH130" s="2">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="131" spans="1:34" outlineLevel="1">
-      <c r="A131" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="6">
-        <v>1190.59</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J131" s="6">
-        <v>30818.27</v>
-      </c>
-      <c r="K131" s="6">
-        <v>10331.49</v>
-      </c>
-      <c r="L131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="V131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="W131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="X131" s="6">
-        <v>27493.51</v>
-      </c>
-      <c r="Y131" s="6">
-        <v>874.74</v>
-      </c>
-      <c r="Z131" s="6">
-        <v>2450.02</v>
-      </c>
-      <c r="AA131" s="6">
-        <v>0.00</v>
-      </c>
-      <c r="AB131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG131" s="6">
-        <v>39580.41</v>
-      </c>
-      <c r="AH131" s="6">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="132" spans="1:34">
-      <c r="A132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="9">
-        <v>99497.99</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G132" s="10"/>
-      <c r="H132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J132" s="9">
-        <v>14586655.57</v>
-      </c>
-      <c r="K132" s="9">
-        <v>1380857.45</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="T132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="U132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="V132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="W132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="X132" s="9">
-        <v>4056739.04</v>
-      </c>
-      <c r="Y132" s="9">
-        <v>3331653.84</v>
-      </c>
-      <c r="Z132" s="9">
-        <v>4439475.70</v>
-      </c>
-      <c r="AA132" s="9">
-        <v>2758786.99</v>
-      </c>
-      <c r="AB132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG132" s="9">
-        <v>84826.36</v>
-      </c>
-      <c r="AH132" s="9">
+    <row r="127" spans="1:34">
+      <c r="A127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="9">
+        <v>97168.96</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G127" s="10"/>
+      <c r="H127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="9">
+        <v>14424412.37</v>
+      </c>
+      <c r="K127" s="9">
+        <v>1373558.17</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X127" s="9">
+        <v>3951728.44</v>
+      </c>
+      <c r="Y127" s="9">
+        <v>3305489.08</v>
+      </c>
+      <c r="Z127" s="9">
+        <v>4436442.34</v>
+      </c>
+      <c r="AA127" s="9">
+        <v>2730752.51</v>
+      </c>
+      <c r="AB127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG127" s="9">
+        <v>83076.36</v>
+      </c>
+      <c r="AH127" s="9">
         <v>0.00</v>
       </c>
     </row>
